--- a/biology/Médecine/Béatrice_Ahyi_Aguessy/Béatrice_Ahyi_Aguessy.xlsx
+++ b/biology/Médecine/Béatrice_Ahyi_Aguessy/Béatrice_Ahyi_Aguessy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Ahyi_Aguessy</t>
+          <t>Béatrice_Ahyi_Aguessy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Béatrice Ahyi Aguessy, née en 1934 à Abomey et morte le 11 janvier 2019, est la première femme gynécologue-obstétricienne du Bénin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Ahyi_Aguessy</t>
+          <t>Béatrice_Ahyi_Aguessy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,122 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1934 au Bénin, Béatrice Ahyi après un baccalauréat série D science expérimentale en 1958, entre en faculté de médecine de Dakar comme première étudiante noire[réf. nécessaire]. Quatre années d'étude plus tard, elle s’installe à Paris pour continuer ses études où en 1968 elle passe sa thèse en médecine. Quatre années après, elle réussit au diplôme de gynécologie-obstétrique puis devient trois ans plus tard spécialiste en stérilité. Parallèlement, elle a évolué dans plusieurs domaines liés toujours a la médecine comme : médecine du travail, médecine pénitentiaire et planning familial. Elle forme plusieurs générations de médecins a l'université du Bénin[2],[3].
-Vie privée
-Béatrice Ahyi Aguessy est l’épouse du professeur Honorat Aguessy[4].
-Vie associative
-Fondatrice du Sort Optimisme Club, elle milite pour la lutte contre le cancer du sein mais aussi contre celui du col de l'utérus en sensibilisant les femmes[5].
-Décès et hommages
-Le 11 janvier 2019, à l’âge de 85 ans, Béatrice Ahyi Aguessy tire sa révérence et est inhumée le 9 février 2019 à Ouidah. Lors des cérémonies, l'ancien président de la république du Bénin Boni Yayi et La Ligue panafricaine UMOJA lui rendent hommage[6],[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1934 au Bénin, Béatrice Ahyi après un baccalauréat série D science expérimentale en 1958, entre en faculté de médecine de Dakar comme première étudiante noire[réf. nécessaire]. Quatre années d'étude plus tard, elle s’installe à Paris pour continuer ses études où en 1968 elle passe sa thèse en médecine. Quatre années après, elle réussit au diplôme de gynécologie-obstétrique puis devient trois ans plus tard spécialiste en stérilité. Parallèlement, elle a évolué dans plusieurs domaines liés toujours a la médecine comme : médecine du travail, médecine pénitentiaire et planning familial. Elle forme plusieurs générations de médecins a l'université du Bénin,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Béatrice_Ahyi_Aguessy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Ahyi_Aguessy</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Béatrice Ahyi Aguessy est l’épouse du professeur Honorat Aguessy.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Béatrice_Ahyi_Aguessy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Ahyi_Aguessy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie associative</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondatrice du Sort Optimisme Club, elle milite pour la lutte contre le cancer du sein mais aussi contre celui du col de l'utérus en sensibilisant les femmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Béatrice_Ahyi_Aguessy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9atrice_Ahyi_Aguessy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décès et hommages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 janvier 2019, à l’âge de 85 ans, Béatrice Ahyi Aguessy tire sa révérence et est inhumée le 9 février 2019 à Ouidah. Lors des cérémonies, l'ancien président de la république du Bénin Boni Yayi et La Ligue panafricaine UMOJA lui rendent hommage.
 </t>
         </is>
       </c>
